--- a/resources/data/amazon.xlsx
+++ b/resources/data/amazon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\amazon_automation\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343E0A27-4832-4292-888A-32A119032E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AA66AE-F631-42C3-B9AB-6DFFE5237C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Serach" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -38,13 +38,49 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>InvalidUserName</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>SuccessMessage</t>
+  </si>
+  <si>
+    <t>LoginErrorMessage</t>
+  </si>
+  <si>
+    <t>SuccessMessageAfterDelete</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>gsadfkjashgdjh</t>
+  </si>
+  <si>
+    <t>We cannot find an account with that email address</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>One Plus 7 Pro</t>
+  </si>
+  <si>
+    <t>Added to Cart</t>
+  </si>
+  <si>
+    <t>was removed from Shopping Cart.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +96,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,14 +147,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,12 +488,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2449B483-47EC-498A-9C49-804F977E55A8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>